--- a/石田関係/AIUIカメラ仕様書.xlsx
+++ b/石田関係/AIUIカメラ仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="AI" sheetId="4" r:id="rId3"/>
     <sheet name="UI" sheetId="2" r:id="rId4"/>
     <sheet name="カメラ" sheetId="5" r:id="rId5"/>
+    <sheet name="操作説明" sheetId="6" r:id="rId6"/>
+    <sheet name="回避アクション" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1"/>
@@ -127,22 +129,556 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・↑のカメラのまま木に登った時</t>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ノボ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トキ</t>
+    <t>操作説明</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カメラは水平のまま</t>
+    <t>基本移動</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティック↑</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの頭の向いている方向にまっすぐ進む</t>
+    <rPh sb="6" eb="7">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティック↓</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの向いている後ろの方向に進む</t>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティック→</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの頭の向いている方向の右側に進む</t>
+    <rPh sb="16" eb="18">
+      <t>ミギガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティック←</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの頭の向いている方向の左側に進む</t>
+    <rPh sb="16" eb="17">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（この時、カメラがどんな方向を向いていてもプレイヤーは頭の向いている方向に進む）</t>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ旋回</t>
+    <rPh sb="3" eb="5">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クモの真ん中を基準に回転</t>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人称に切り替えたときはそのカメラの位置からそのまま1人称のカメラに切り替える</t>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(↑この時カメラ2つ用意するか1つを移動させるかはラクな方で構わないです)</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主観切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>シュカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時、変わる直前の3人称視点のカメラの向いてる方向を一人称にしたイメージ</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>イチニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリガーを押した時1人称に変わる</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人称時の操作は同じ</t>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度主観切り替えを押すと3人称に戻る(木にジャンプした場合は強制的に3人称に切り替わる)</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
     <rPh sb="4" eb="6">
-      <t>スイヘイ</t>
+      <t>シュカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　3人称に切り替わった時はトップビュー風のカメラ位置になる</t>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押し込み時：カメラはトップビュー風の位置に瞬間移動する</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート時はこのカメラの位置</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ位置のリセットを押した時もこの位置</t>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの真上にカメラを置く</t>
+    <rPh sb="6" eb="8">
+      <t>マウエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ旋回は操作説明ページに入ってる</t>
+    <rPh sb="3" eb="5">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・木に登った時</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面から(スタート時の視点)木に登った場合もこのカメラの位置に自動的に切り替えしてくれる</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・地面にいるときのカメラ横移動</t>
+    <rPh sb="1" eb="3">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右スティックをそのまま右に倒した時</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・木登り時のカメラ横移動</t>
+    <rPh sb="1" eb="3">
+      <t>キノボ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方向回転</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1ボタンを押してる間、プレイヤーはその場で少しずつ右回転する</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1ボタンを押してる間、プレイヤーはその場で少しずつ左回転する</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -232,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -241,10 +777,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2555,6 +3094,63 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="12801600"/>
+          <a:ext cx="3009900" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -2646,6 +3242,50 @@
         <a:xfrm>
           <a:off x="771526" y="1600200"/>
           <a:ext cx="4114996" cy="2095499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="12801600"/>
+          <a:ext cx="1990725" cy="1990725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2743,7 +3383,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2756,7 +3396,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733426" y="4981576"/>
+          <a:off x="1419226" y="4991101"/>
           <a:ext cx="2019300" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3070,6 +3710,3032 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9001125"/>
+          <a:ext cx="4114996" cy="2095499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828799" y="10810875"/>
+          <a:ext cx="1752600" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プレイヤー初期位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="9277350"/>
+          <a:ext cx="552450" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 63043"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="9029700"/>
+          <a:ext cx="3686175" cy="2073473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="12830175"/>
+          <a:ext cx="457200" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>木</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="13096875"/>
+          <a:ext cx="514350" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="47625">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449925</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>167961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161544</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>26836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="15378853">
+          <a:off x="5267385" y="13571826"/>
+          <a:ext cx="1049500" cy="1083219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="13620750"/>
+          <a:ext cx="885825" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6124575" y="13801725"/>
+          <a:ext cx="514350" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="47625">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="12773025"/>
+          <a:ext cx="3009900" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190626" y="12773026"/>
+          <a:ext cx="2019300" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="13820775"/>
+          <a:ext cx="885825" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="12934950"/>
+          <a:ext cx="457200" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>木</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2609850" y="14001750"/>
+          <a:ext cx="514350" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="47625">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="13201650"/>
+          <a:ext cx="514350" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="47625">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="14868525"/>
+          <a:ext cx="1619250" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トップビュー風</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="右矢印 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="13506450"/>
+          <a:ext cx="552450" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 63043"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10980" r="11746"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="1874813"/>
+          <a:ext cx="2771775" cy="2014586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="18186" t="30723" r="19609"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058025" y="2000250"/>
+          <a:ext cx="2867025" cy="1804120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>122213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="1389038"/>
+          <a:ext cx="1181100" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>基本移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563943</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>58004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>524915</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138469</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7421943" y="2124929"/>
+          <a:ext cx="646772" cy="280490"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30147</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3459147" y="2735817"/>
+          <a:ext cx="265128" cy="750333"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="3379763"/>
+          <a:ext cx="2552700" cy="779059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>カメラ旋回</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>押し込み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>視点リセット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>78168</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>618492</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2135568" y="1809750"/>
+          <a:ext cx="540324" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>516318</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3259518" y="2275597"/>
+          <a:ext cx="417132" cy="448554"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1762125"/>
+          <a:ext cx="657225" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>131738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110697</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="798488"/>
+          <a:ext cx="2552700" cy="779059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>狙った木にジャンプ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>空中時：回避アクション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>668718</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>629690</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147994</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6155118" y="2134454"/>
+          <a:ext cx="646772" cy="280490"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468297</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77636</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5954697" y="1373742"/>
+          <a:ext cx="295139" cy="801789"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496175" y="1381125"/>
+          <a:ext cx="1400175" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648450" y="1169963"/>
+          <a:ext cx="1495425" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>方向回転</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30543</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>677315</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574343" y="1801079"/>
+          <a:ext cx="646772" cy="280490"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>582597</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175281</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="22" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8126397" y="1343025"/>
+          <a:ext cx="398478" cy="499131"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>176910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="1008038"/>
+          <a:ext cx="1495425" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>主観切り替え</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11493</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3440493" y="1911296"/>
+          <a:ext cx="321882" cy="346129"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="28" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3762375" y="1504950"/>
+          <a:ext cx="457200" cy="579411"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3350,10 +7016,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3378,10 +7044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3406,10 +7072,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3434,10 +7100,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -3473,10 +7139,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -3485,10 +7151,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -3496,23 +7167,56 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="7" t="s">
-        <v>12</v>
+      <c r="A20" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I21" s="1" t="s">
-        <v>13</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +7224,181 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="操作説明!A36" display="カメラ旋回は操作説明ページに入ってる"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F44" location="カメラ!A1" display="カメラへ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>